--- a/acm-standard-applications/acm-foia/src/main/resources/rules/drools-start-business-process-rules-foia.xlsx
+++ b/acm-standard-applications/acm-foia/src/main/resources/rules/drools-start-business-process-rules-foia.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasko.tanaskoski\.arkcase\acm\rules\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23295" windowHeight="5663" tabRatio="997"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23295" windowHeight="5670" tabRatio="997"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -22,7 +26,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>RuleSet</t>
   </si>
@@ -137,22 +141,31 @@
     <t>Name of business process to start (must be an Activiti process name)</t>
   </si>
   <si>
-    <t>Default Workflow (no other rules match)</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>foia-extension-intake-process</t>
   </si>
   <si>
     <t>Request Intake</t>
   </si>
   <si>
-    <t>pipelineContext.newCase == $param</t>
-  </si>
-  <si>
     <t>Is the case a new case file?</t>
+  </si>
+  <si>
+    <t>gov.foia.model.FOIARequest</t>
+  </si>
+  <si>
+    <t>pipelineContext.newCase == true &amp;&amp; ((FOIARequest)$model.getBusinessObject()).getRequestType().equals("$param")</t>
+  </si>
+  <si>
+    <t>New Request</t>
+  </si>
+  <si>
+    <t>Appeal</t>
+  </si>
+  <si>
+    <t>foia-extension-appeal-process</t>
+  </si>
+  <si>
+    <t>Request Appeal</t>
   </si>
 </sst>
 </file>
@@ -236,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -390,11 +403,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
@@ -428,6 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,12 +552,18 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -568,12 +601,18 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -611,12 +650,18 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -654,12 +699,18 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -990,25 +1041,25 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.796875"/>
-    <col min="2" max="2" width="24.265625"/>
-    <col min="3" max="3" width="69.53125"/>
-    <col min="4" max="4" width="70.6640625"/>
-    <col min="5" max="5" width="35.73046875"/>
-    <col min="6" max="6" width="24.1328125"/>
-    <col min="7" max="7" width="35.59765625"/>
-    <col min="8" max="1025" width="8.73046875"/>
+    <col min="1" max="1" width="14.85546875"/>
+    <col min="2" max="2" width="24.28515625"/>
+    <col min="3" max="3" width="69.5703125"/>
+    <col min="4" max="4" width="70.7109375"/>
+    <col min="5" max="5" width="35.7109375"/>
+    <col min="6" max="6" width="24.140625"/>
+    <col min="7" max="7" width="35.5703125"/>
+    <col min="8" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1017,7 +1068,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -1030,7 +1081,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -1043,120 +1094,135 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>5</v>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="114" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1175,9 +1241,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.73046875"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1194,9 +1260,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.73046875"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
